--- a/TP3/Brutto.EzequielAndres.2D.TPFinal/Forms/bin/Debug/net5.0-windows/employeesData.xlsx
+++ b/TP3/Brutto.EzequielAndres.2D.TPFinal/Forms/bin/Debug/net5.0-windows/employeesData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TUP - UTNFRA\2do CUATRIMESTRE\PROG-Y-LABO.RECURSADA\tps_laboratorio_ii\TP3\Brutto.EzequielAndres.2D.TPFinal\Forms\bin\Debug\net5.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>SalesMade</t>
-  </si>
-  <si>
-    <t>SalesCommission</t>
   </si>
   <si>
     <t>Jacky</t>
@@ -145,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,24 +148,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -195,15 +177,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F8" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:F8"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D8" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="SellerName" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Username" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Password" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="SalesMade" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="SalesCommission" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="SellerName" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Username" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Password" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +468,7 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,153 +481,105 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1878</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1795</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2513.63</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2315.15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1465.66</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1989</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
